--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R571f07db70b64b8a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb8ea0868a2804120"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rb8ea0868a2804120"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5875744b1d1e45a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R5875744b1d1e45a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R21827bc408794ada"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R21827bc408794ada"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R729614b399534613"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R729614b399534613"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd36a99b3287949c4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd36a99b3287949c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R8d3e24460cbc4f51"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R8d3e24460cbc4f51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R857124fb7b514f9a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R857124fb7b514f9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R7bd020190a5b4ee4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R7bd020190a5b4ee4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R39c18871f3214041"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R39c18871f3214041"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Recc4e73608b84fcc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Recc4e73608b84fcc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R2649a552d1ee4eb8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R2649a552d1ee4eb8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd5bbbe9290154ef5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/027_CountFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="Rd5bbbe9290154ef5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CountFormulas" sheetId="1" r:id="R8565b30ea22c4b7d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
